--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TypeScriptDemoProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EF2AB7-4869-43BD-85F1-1229685274A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B69A5A-C073-47B5-9182-9724FE828619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8474CEA2-9298-495F-8125-5BD061CD22C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="108">
   <si>
     <t>🟢 Beginner (Basics &amp; Logic Building)</t>
   </si>
@@ -716,6 +716,252 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>BASIC LOOP QUESTIONS (Foundations)</t>
+  </si>
+  <si>
+    <t>1. Print numbers from 1 to N using a loop.</t>
+  </si>
+  <si>
+    <t>2. Print all even numbers between 1 and 100.</t>
+  </si>
+  <si>
+    <t>3. Print all odd numbers between 1 and 100.</t>
+  </si>
+  <si>
+    <t>4. Calculate the sum of the first N natural numbers.</t>
+  </si>
+  <si>
+    <t>5. Find the sum of digits of a number.</t>
+  </si>
+  <si>
+    <t>6. Reverse a given string using a loop.</t>
+  </si>
+  <si>
+    <t>7. Count the number of vowels in a string.</t>
+  </si>
+  <si>
+    <t>8. Print the multiplication table of a number.</t>
+  </si>
+  <si>
+    <t>9. Count how many digits are in a number.</t>
+  </si>
+  <si>
+    <t>10. Print all factors of a given number.</t>
+  </si>
+  <si>
+    <t>🟡 INTERMEDIATE LOOP QUESTIONS (Interview Level)</t>
+  </si>
+  <si>
+    <t>11. Find the factorial of a number using a loop.</t>
+  </si>
+  <si>
+    <t>12. Check whether a number is prime.</t>
+  </si>
+  <si>
+    <t>13. Print all prime numbers between 1 and 100.</t>
+  </si>
+  <si>
+    <t>14. Find the largest and smallest number in an array.</t>
+  </si>
+  <si>
+    <t>15. Find the second largest number in an array.</t>
+  </si>
+  <si>
+    <t>16. Remove duplicate elements from an array using loops.</t>
+  </si>
+  <si>
+    <t>17. Count the frequency of each character in a string.</t>
+  </si>
+  <si>
+    <t>18. Count the frequency of each number in an array.</t>
+  </si>
+  <si>
+    <t>19. Reverse an array without using built-in methods.</t>
+  </si>
+  <si>
+    <t>20. Check whether a string is a palindrome.</t>
+  </si>
+  <si>
+    <t>🔵 ADVANCED LOOP QUESTIONS (Logic + Thinking)</t>
+  </si>
+  <si>
+    <t>21. Find the missing number in an array of 1 to N.</t>
+  </si>
+  <si>
+    <t>22. Move all zeroes to the end of an array.</t>
+  </si>
+  <si>
+    <t>23. Find common elements between two arrays.</t>
+  </si>
+  <si>
+    <t>24. Merge two arrays and remove duplicates.</t>
+  </si>
+  <si>
+    <t>25. Flatten a 2D array into a 1D array using loops.</t>
+  </si>
+  <si>
+    <t>26. Print Fibonacci series up to N terms.</t>
+  </si>
+  <si>
+    <t>27. Check if two strings are anagrams.</t>
+  </si>
+  <si>
+    <t>28. Find the first non-repeating character in a string.</t>
+  </si>
+  <si>
+    <t>29. Rotate an array left by K positions.</t>
+  </si>
+  <si>
+    <t>30. Rotate an array right by K positions.</t>
+  </si>
+  <si>
+    <t>🔴 TRICKY LOOP QUESTIONS (Frequently Asked)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">31. Explain the difference between </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>break</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>continue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with example.</t>
+    </r>
+  </si>
+  <si>
+    <t>32. Print a star pattern using nested loops.</t>
+  </si>
+  <si>
+    <t>33. Find duplicate characters in a string.</t>
+  </si>
+  <si>
+    <t>34. Find duplicate numbers in an array.</t>
+  </si>
+  <si>
+    <t>35. Count words in a sentence using loops.</t>
+  </si>
+  <si>
+    <t>36. Validate if an array is sorted.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">37. Remove a specific element from an array without using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>filter()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">38. Replace all spaces in a string with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>%20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> using loops.</t>
+    </r>
+  </si>
+  <si>
+    <t>39. Find the longest word in a sentence.</t>
+  </si>
+  <si>
+    <t>40. Reverse words in a sentence using loops.</t>
+  </si>
+  <si>
+    <t>🟣 REAL-WORLD / AUTOMATION-FOCUSED LOOP QUESTIONS (High Value)</t>
+  </si>
+  <si>
+    <t>41. Loop through a list of checkboxes and select unchecked ones.</t>
+  </si>
+  <si>
+    <t>42. Iterate through table rows and validate column values.</t>
+  </si>
+  <si>
+    <t>43. Compare UI table data with API response data.</t>
+  </si>
+  <si>
+    <t>44. Retry an action up to 3 times using a loop.</t>
+  </si>
+  <si>
+    <t>45. Loop through elements and click only visible ones.</t>
+  </si>
+  <si>
+    <t>46. Validate that all links on a page are working.</t>
+  </si>
+  <si>
+    <t>47. Read test data from an array and execute tests in a loop.</t>
+  </si>
+  <si>
+    <t>48. Loop through error messages and validate text.</t>
+  </si>
+  <si>
+    <t>49. Paginate through results and collect data.</t>
+  </si>
+  <si>
+    <t>50. Loop through dropdown options and validate sorting.</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -1114,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084DC32F-E52D-4F91-870A-B9E1BB69A471}">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1486,52 +1732,493 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="23.4">
+    <row r="97" spans="1:2" ht="23.4">
       <c r="A97" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:2">
       <c r="A98" s="2"/>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:2">
       <c r="A99" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:2">
       <c r="A100" s="2"/>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:2">
       <c r="A101" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:2">
       <c r="A102" s="2"/>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:2">
       <c r="A103" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:2">
       <c r="A104" s="2"/>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:2">
       <c r="A105" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:2">
       <c r="A106" s="2"/>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:2">
       <c r="A107" s="2" t="s">
         <v>49</v>
       </c>
     </row>
+    <row r="110" spans="1:2" ht="23.4">
+      <c r="A110" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2"/>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B112" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2"/>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B114" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2"/>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B116" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B118" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B120" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2"/>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="2"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="23.4">
+      <c r="A134" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="2"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="2"/>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="2"/>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="2"/>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="2"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="2"/>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="2"/>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="2"/>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="2"/>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="2"/>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="23.4">
+      <c r="A158" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="2"/>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="2"/>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="2"/>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="2"/>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="2"/>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="2"/>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="2"/>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="2"/>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="2"/>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="2"/>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="23.4">
+      <c r="A182" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="2"/>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="2"/>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="2"/>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="2"/>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="2"/>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="2"/>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="2"/>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="2"/>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="2"/>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="2"/>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="23.4">
+      <c r="A206" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="2"/>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="2"/>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="2"/>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="2"/>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="2"/>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="2"/>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="2"/>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="2"/>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="2"/>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="2"/>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TypeScriptDemoProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ddrive\TypeScriptDemoProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B69A5A-C073-47B5-9182-9724FE828619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05969105-56E7-46B9-9257-9079FBE070FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8474CEA2-9298-495F-8125-5BD061CD22C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8474CEA2-9298-495F-8125-5BD061CD22C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="109">
   <si>
     <t>🟢 Beginner (Basics &amp; Logic Building)</t>
   </si>
@@ -962,6 +962,9 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>Complicated</t>
   </si>
 </sst>
 </file>
@@ -1360,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084DC32F-E52D-4F91-870A-B9E1BB69A471}">
-  <dimension ref="A1:C226"/>
+  <dimension ref="A1:E226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1371,7 +1374,7 @@
     <col min="1" max="1" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.4">
+    <row r="1" spans="1:5" ht="23.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1379,10 +1382,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1390,10 +1393,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1401,10 +1404,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1412,10 +1415,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:5">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1423,10 +1426,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:5">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1434,10 +1437,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:5">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1445,15 +1448,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:5">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1">
@@ -1844,6 +1853,9 @@
       <c r="A122" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="B122" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2"/>
@@ -1852,6 +1864,9 @@
       <c r="A124" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="B124" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2"/>
@@ -1860,6 +1875,9 @@
       <c r="A126" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="B126" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2"/>
@@ -1868,56 +1886,62 @@
       <c r="A128" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="B128" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" s="2"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:2">
       <c r="A130" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" ht="23.4">
+      <c r="B130" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="23.4">
       <c r="A134" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:2">
       <c r="A135" s="2"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:2">
       <c r="A136" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:2">
       <c r="A137" s="2"/>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:2">
       <c r="A138" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:2">
       <c r="A139" s="2"/>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:2">
       <c r="A140" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:2">
       <c r="A141" s="2"/>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:2">
       <c r="A142" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:2">
       <c r="A143" s="2"/>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:2">
       <c r="A144" s="2" t="s">
         <v>68</v>
       </c>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ddrive\TypeScriptDemoProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05969105-56E7-46B9-9257-9079FBE070FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB98B75-5CA1-4DD7-9F0C-A2E4B75E9C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8474CEA2-9298-495F-8125-5BD061CD22C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{8474CEA2-9298-495F-8125-5BD061CD22C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="175">
   <si>
     <t>🟢 Beginner (Basics &amp; Logic Building)</t>
   </si>
@@ -965,13 +966,1711 @@
   </si>
   <si>
     <t>Complicated</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Reverse an array </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">without using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>reverse()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Find the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>largest and smallest number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in a numeric array.</t>
+    </r>
+  </si>
+  <si>
+    <t>3. Remove duplicate values from an array.</t>
+  </si>
+  <si>
+    <t>4. Count how many times each element appears in an array.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. Check if two arrays are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>equal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (same elements, same order).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. Merge two arrays and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remove duplicates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7. Find the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>second largest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> element in an array.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8. Split an array into </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chunks of size N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9. Rotate an array </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>K times to the right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10. Check if an array is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sorted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🔹 Level 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>map()</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>filter()</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>reduce()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11. Convert an array of strings to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uppercase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12. From an array of numbers, return only </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>even numbers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13. Calculate the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sum of all elements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>reduce()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14. Find the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maximum value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>reduce()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15. Convert </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>[1,2,3]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>[{value:1},{value:2},{value:3}]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16. Count total </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vowels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in an array of strings.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17. Remove all </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>falsy values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from an array.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18. Group numbers into </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>even and odd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>reduce()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19. Flatten a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2D array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>reduce()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20. Convert an array of strings into a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comma-separated string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🔹 Level 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>find()</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>some()</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>every()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21. Find the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>first element greater than 50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">22. Check if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>any number is negative</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">23. Check if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all numbers are positive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">24. Find a user object by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">25. Check if an array contains </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>duplicate elements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">26. Validate if all strings have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>length &gt; 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">27. Find the first even number </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>greater than 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🔹 Level 4: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>sort()</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>includes()</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>indexOf()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">28. Sort numbers </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ascending and descending</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">29. Sort strings </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alphabetically</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>30. Sort objects by a numeric property.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">31. Find index of an element </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">without using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>indexOf()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">32. Check if array contains a value </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">without </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>includes()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>33. Sort an array of dates.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">34. Sort array of objects by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>multiple fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🔹 Level 5: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>splice()</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>slice()</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>concat()</t>
+    </r>
+  </si>
+  <si>
+    <t>35. Remove elements from index 2 to 4.</t>
+  </si>
+  <si>
+    <t>36. Insert an element at position 3.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">37. Replace elements using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>splice()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">38. Clone an array using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>slice()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">39. Merge arrays using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>concat()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">40. Remove last two elements </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">without </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>pop()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>🔹 Level 6: Real-World Automation Scenarios 🧪</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">41. Remove duplicate </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>test case IDs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from execution results.</t>
+    </r>
+  </si>
+  <si>
+    <t>42. Find failed test cases from an execution report.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">43. Count test cases by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Pass</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Fail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Skip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">44. Extract all </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>API names</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from a test results array.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">45. Validate if all response times are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>below SLA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">46. Sort test cases by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>execution time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">47. Find the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>slowest API call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>48. Merge UI + API failure reports.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">49. Find test cases that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>failed consecutively</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">50. Group test cases by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>module name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>🔹 Level 7: Advanced / Interview-Grade Problems ⭐</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">51. Implement your own version of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>map()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">52. Implement your own version of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>filter()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">53. Implement your own version of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>reduce()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">54. Find </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>missing numbers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in a sequence.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">55. Find the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>intersection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of two arrays.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">56. Find the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>union</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of multiple arrays.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">57. Remove duplicates </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>without using Set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>58. Find longest string in an array.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">59. Convert array into a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>frequency map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>60. Rearrange array: even numbers first, odd later.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -996,6 +2695,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
@@ -1365,8 +3070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084DC32F-E52D-4F91-870A-B9E1BB69A471}">
   <dimension ref="A1:E226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1465,57 +3170,60 @@
     <row r="16" spans="1:5">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:3">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="23.4">
+    <row r="25" spans="1:3" ht="23.4">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:3">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:3">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:3">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:3">
       <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1">
@@ -2245,4 +3953,553 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1598169-E5B3-478A-A877-9E2906CB65C2}">
+  <dimension ref="A1:B143"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="66.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="23.4">
+      <c r="A23" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="23.4">
+      <c r="A47" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="23.4">
+      <c r="A65" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="2"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="2"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="2"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="2"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="2"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="23.4">
+      <c r="A83" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="2"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="2"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="2"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="2"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="2"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="2"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="23.4">
+      <c r="A99" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="2"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="2"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="2"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="2"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="2"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="2"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="2"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="2"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="2"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="2"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="23.4">
+      <c r="A123" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="2"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="2"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="2"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="2"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="2"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="2"/>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="2"/>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="2"/>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="2"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="2"/>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>